--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,57 +43,54 @@
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>shit</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -112,58 +109,55 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>really</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
   </si>
   <si>
     <t>’</t>
@@ -530,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -691,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0.7368421052631579</v>
@@ -820,16 +814,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.7241379310344828</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8421052631578947</v>
+        <v>0.8125</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,16 +864,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.72</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8125</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,10 +911,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>0.6842105263157895</v>
@@ -949,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.65</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -967,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>0.6666666666666666</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6086956521739131</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1067,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.5185185185185185</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1091,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1099,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5957446808510638</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,19 +1111,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.375</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1141,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1149,37 +1143,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>14</v>
       </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.273224043715847</v>
+        <v>0.375</v>
       </c>
       <c r="L14">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="M14">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>798</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1199,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5797101449275363</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1217,19 +1211,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.2372881355932203</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1249,13 +1243,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5428571428571428</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1267,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="L16">
         <v>16</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="L16">
-        <v>12</v>
-      </c>
       <c r="M16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1291,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1302,10 +1296,10 @@
         <v>0.5</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1317,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.1846153846153846</v>
+        <v>0.261384335154827</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1341,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>53</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1349,13 +1343,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4285714285714285</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1367,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.1789473684210526</v>
+        <v>0.2</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1391,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1399,13 +1393,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.2435897435897436</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1417,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.0572289156626506</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1441,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>626</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1449,87 +1443,63 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3846153846153846</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20">
+        <v>0.1830985915492958</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K20">
-        <v>0.0530035335689046</v>
-      </c>
-      <c r="L20">
-        <v>15</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.04026845637583892</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>0.08</v>
-      </c>
-      <c r="F21">
-        <v>0.92</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>286</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K21">
-        <v>0.04761904761904762</v>
+        <v>0.05873493975903615</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1541,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>300</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>0.04444444444444445</v>
+        <v>0.04814814814814815</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1567,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.04058441558441558</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1593,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.03812316715542522</v>
+        <v>0.03713188220230474</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1619,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>328</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>0.03201024327784891</v>
+        <v>0.02188940092165899</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1645,33 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>0.02419354838709677</v>
-      </c>
-      <c r="L26">
-        <v>42</v>
-      </c>
-      <c r="M26">
-        <v>42</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1694</v>
+        <v>1698</v>
       </c>
     </row>
   </sheetData>
